--- a/API_project/report/Excel/联系方式渠道.xlsx
+++ b/API_project/report/Excel/联系方式渠道.xlsx
@@ -8,6 +8,9 @@
   </bookViews>
   <sheets>
     <sheet name="2022年01月06日19时05分" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="2022年01月07日22时07分" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="2022年01月07日22时38分" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="2022年01月08日10时23分" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4746,4 +4749,523 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>pid</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>entName</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>搜索条件</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>搜索渠道</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>过滤条件</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>测试结果</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>虎易网</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>pid</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>entName</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>搜索条件</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>搜索渠道</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>过滤条件</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>测试结果</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>f500e78d3d5e99cfcb06b698d3152846</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>山东东泰农化有限公司</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>contactSource</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>工商企业年报2020</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>详情页没有该渠道但是ES有该渠道</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>contactSource</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>工商企业年报2020</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>NOT_IN</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>联系方式为空</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>pid</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>entName</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>搜索条件</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>搜索渠道</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>过滤条件</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>测试结果</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>mobileSource</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>阿土伯</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>NOT_IN</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>联系方式为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>8712818bbf2f5bdfddf7ce0195576cb</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>比智高药业有限公司</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>mobileSource</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>中国商品网</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>详情页没有该渠道但是ES有该渠道</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>989693c04987dcad1664416d2f55cf15</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>泰格工业集团有限公司</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>中国商品网</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>详情页没有该渠道但是ES有该渠道</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>虎易网</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>f6e2e501a878cb162d2fd93102f881d2</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>沈阳水仙科技有限公司</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>生意宝</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>详情页没有该渠道但是ES有该渠道</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>生意宝</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>NOT_IN</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>联系方式为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>e4ccf9b92128207585eea4756ecd2b89</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>山东施普乐生物医药有限公司</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>商务联盟网</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>详情页没有该渠道但是ES有该渠道</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>9714a1fd82205d99c321183e38d2aa3e</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>广西巴马印象生活体验产业有限公司</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>contactSource</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>天助网</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>详情页没有该渠道但是ES有该渠道</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>461c884ac0764a69b422b9961c126d8c</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>无锡恒田纺织品有限公司</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>contactSource</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>商路通</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>详情页没有该渠道但是ES有该渠道</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>b3d8aaadda757e49232bc75d899a88c2</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>东莞振兴纸品有限公司</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>企讯网</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>详情页没有该渠道但是ES有该渠道</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/API_project/report/Excel/联系方式渠道.xlsx
+++ b/API_project/report/Excel/联系方式渠道.xlsx
@@ -4935,7 +4935,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5265,6 +5265,1064 @@
         </is>
       </c>
     </row>
+    <row r="12">
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>中国花木网</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>土巴兔</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>33abd8dc34f3b6b9803d584665ed4854</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>上海赛途仪器仪表有限公司</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>contactSource</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>仪表仪器交易</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>详情页没有该渠道但是ES有该渠道</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>302477313b46f0034aa16349a92fce58</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>托菲传感技术（上海）股份有限公司</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>contactSource</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>仪表仪器交易</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>详情页没有该渠道但是ES有该渠道</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>06c66185ff8b7ac6cb0e21ecfa0fb63a</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>湖南中信安科技有限责任公司</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>contactSource</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>仪表仪器交易</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>详情页没有该渠道但是ES有该渠道</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>eec6515cd22019b152bc8e75c3529e19</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>连云港岚宝电子科技有限公司</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>contactSource</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>仪表仪器交易</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>详情页没有该渠道但是ES有该渠道</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>5c04ae290179554a64068c75c23a5cb3</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>深圳市奈良机工贸易有限公司</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>contactSource</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>仪表仪器交易</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>详情页没有该渠道但是ES有该渠道</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>be43b7367984cea0886533999d93d7a1</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>常州市成丰流量仪表有限公司</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>contactSource</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>仪表仪器交易</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>详情页没有该渠道但是ES有该渠道</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>83e376c2de8fe7f6f6dfe72f7d17496c</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>天津施德科技有限公司</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>contactSource</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>仪表仪器交易</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>详情页没有该渠道但是ES有该渠道</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>1be8ce9720e3365ab168412f71579c6f</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>巨博阀门有限公司</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>contactSource</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>仪表仪器交易</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>详情页没有该渠道但是ES有该渠道</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>ca83480c6088e7b13b5edd9d73cce1cc</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>深圳市森威尔科技开发股份有限公司</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>contactSource</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>仪表仪器交易</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>详情页没有该渠道但是ES有该渠道</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>ce20a30279fd16fc12b32f9fe33ff1f7</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>湖南索拓科技有限公司</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>contactSource</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>仪表仪器交易</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>详情页没有该渠道但是ES有该渠道</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>0d5c991a2b4b260feaff8adb5d062345</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>佛山市顺德区苏南环试电源设备有限公司</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>mobileSource</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>仪表仪器交易</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>详情页没有该渠道但是ES有该渠道</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>ffb3bc2086e93fe883ee16ddc0b7c902</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>深圳市澳托士液压机械有限公司</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>mobileSource</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>仪表仪器交易</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>详情页没有该渠道但是ES有该渠道</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>a365e7da374edab0bac8be1c077eb4ff</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>深圳市艾宝科技有限公司</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>mobileSource</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>仪表仪器交易</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>详情页没有该渠道但是ES有该渠道</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>9ae4e4fadff8eb4e97e4a8bc4399b245</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>上海坦泼秋尔电器科技有限公司</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>mobileSource</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>仪表仪器交易</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>详情页没有该渠道但是ES有该渠道</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>18769b98686410ac47e50dcd0795e21a</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>安徽天彩电缆集团有限公司</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>mobileSource</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>仪表仪器交易</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>详情页没有该渠道但是ES有该渠道</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>1cda185b74338e9915cfa96057b95b08</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>东莞市三本精密仪器有限公司</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>mobileSource</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>仪表仪器交易</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>详情页没有该渠道但是ES有该渠道</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>fbd89faf093bc77c818c8f9fbf8fc455</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>苏州工业园区天和仪器有限公司</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>mobileSource</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>仪表仪器交易</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>详情页没有该渠道但是ES有该渠道</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>c7b60e3d5c47790432c4380e9d6f7e32</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>上海辉派工业设备有限公司</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>mobileSource</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>仪表仪器交易</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>详情页没有该渠道但是ES有该渠道</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>968b046b0387a70f5a4b0733937237ba</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>安徽中盛电气集团有限公司</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>mobileSource</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>仪表仪器交易</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>详情页没有该渠道但是ES有该渠道</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>86c98bf2ca68a439e242fe20533b97cd</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>浙江罗卡电气有限公司</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>mobileSource</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>仪表仪器交易</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>详情页没有该渠道但是ES有该渠道</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>bf13959d0a4b8fe8104fd42cdad48ba5</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>上海持承自动化设备有限公司</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>仪表仪器交易</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>详情页没有该渠道但是ES有该渠道</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>3247fe51dec07d86406cb9c4c5139b2e</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>深圳市荣利丰科技有限公司</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>仪表仪器交易</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>详情页没有该渠道但是ES有该渠道</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>78fb16c97093401ebea6e2639c88b6ff</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>河南省日立信股份有限公司</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>仪表仪器交易</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>详情页没有该渠道但是ES有该渠道</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>15397b7d8f97f9b35dbea6a9f3f39f93</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>西安德创电气科技有限公司</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>仪表仪器交易</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>详情页没有该渠道但是ES有该渠道</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>8875fa7dc787d362944cdd306634cdcc</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>山东新泽仪器有限公司</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>仪表仪器交易</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>详情页没有该渠道但是ES有该渠道</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>377c135e821a056b159ee8a38c67a582</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>武汉正元环境科技股份有限公司</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>仪表仪器交易</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>详情页没有该渠道但是ES有该渠道</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>0b39272a7cea3f539ac3b6b980c4e8d6</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>深圳市鑫诺尔科技有限公司</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>仪表仪器交易</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>详情页没有该渠道但是ES有该渠道</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>65bedd33f7b86afec723c8392a7e55cd</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>南京宏沐科技有限公司</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>仪表仪器交易</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>详情页没有该渠道但是ES有该渠道</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>8d67d27b3ae03580d385949719664f53</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>深圳市艾克瑞电气有限公司</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>仪表仪器交易</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>详情页没有该渠道但是ES有该渠道</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>ed084653d273af663c16c39a36bf3604</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>江苏领驭电机有限公司</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>仪表仪器交易</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>详情页没有该渠道但是ES有该渠道</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>contactSource</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>园林网</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>NOT_IN</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>联系方式为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>151eaf22956ed31cedd1af05ee670a26</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>江苏华东五金城有限公司</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>mobileSource</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>中国建材采购网</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>NOT_IN</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>详情页有该渠道但是ES没有该渠道</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/API_project/report/Excel/联系方式渠道.xlsx
+++ b/API_project/report/Excel/联系方式渠道.xlsx
@@ -4935,7 +4935,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F45"/>
+  <dimension ref="A1:F58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6323,6 +6323,342 @@
         </is>
       </c>
     </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>7317d8919b8ab394395686eaad578dc0</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>永康市亚泰杯业有限公司</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>mobileSource</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>中国印刷网</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>详情页没有该渠道但是ES有该渠道</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>mobileSource</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>化纤网</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>联系方式为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>55baf01ac33e6de60d1f2a78455c4a3b</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>宁波市鄞州立鹤化纤有限公司</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>mobileSource</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>化纤网</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>详情页没有该渠道但是ES有该渠道</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>mobileSource</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>中国化工产品网</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>NOT_IN</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>联系方式为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>买卖机械网</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>contactSource</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>腾讯地图</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>联系方式为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>a5ac28f2f04f54f8c978cd8de9d17a90</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>上海妞妞食品有限公司</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>contactSource</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>腾讯地图</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>详情页没有该渠道但是ES有该渠道</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>mobileSource</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>12580黄页</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>12580黄页</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>搜索结果为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>mobileSource</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>黄页大全</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>联系方式为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>3ea19bf9acc452f712ed74646b435805</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>开平市李氏实业发展有限公司</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>mobileSource</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>黄页大全</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>详情页没有该渠道但是ES有该渠道</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>contactSource</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>企一网</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>NOT_IN</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>联系方式为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>b11f481fbd811cd557dfdc488392e95d</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>厦门市南方科宇科技有限公司</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>fixedSource</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>智联招聘</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>详情页没有该渠道但是ES有该渠道</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
